--- a/Client/Assets/Data/XLSXS/BuffData.xlsx
+++ b/Client/Assets/Data/XLSXS/BuffData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D096EEDD-C202-4924-B370-6533BECCA363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F741CF-D635-4E1C-955A-4FA159476DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="7575" yWindow="885" windowWidth="29850" windowHeight="16755" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력 20%증가버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스피드 40 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +147,28 @@
   <si>
     <t>_BuffName</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 30%증가버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 30%증가 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>이속 20% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프력 30% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JumpP</t>
   </si>
 </sst>
 </file>
@@ -543,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -566,10 +584,10 @@
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -610,7 +628,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
@@ -715,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -753,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -791,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -806,21 +824,135 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>3000</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
         <v>2000</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>-1</v>
       </c>
     </row>

--- a/Client/Assets/Data/XLSXS/BuffData.xlsx
+++ b/Client/Assets/Data/XLSXS/BuffData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PhotonGameJam\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F741CF-D635-4E1C-955A-4FA159476DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9B7855-B75C-413E-993C-BECCB6B5CD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="885" windowWidth="29850" windowHeight="16755" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
+    <workbookView xWindow="1650" yWindow="10125" windowWidth="29730" windowHeight="16755" xr2:uid="{79A95904-7ECB-477A-BCA4-53F736690B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>JumpP</t>
+  </si>
+  <si>
+    <t>10초마다 전체 체력 20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotHpPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,16 +569,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740259D2-4F51-4A9B-AFFF-743829693509}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="6" width="17.125" customWidth="1"/>
@@ -956,6 +964,44 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="11" spans="1:12" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11">
+        <v>100000</v>
+      </c>
+      <c r="I11">
+        <v>2000</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
